--- a/Ageipelago Joan of Arc.xlsx
+++ b/Ageipelago Joan of Arc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/BB6DD295C338E39F/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA2542DF-DBA3-4D13-8D9D-81B85B6B4E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{BA2542DF-DBA3-4D13-8D9D-81B85B6B4E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38727B9F-1E22-4033-AAF8-5C72A93D96F7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E5C4DF5-6A70-45B6-8795-4F3A15A3E9BB}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E5C4DF5-6A70-45B6-8795-4F3A15A3E9BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Joan of Arc" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <r>
       <t xml:space="preserve">Once again, we might want to split Siege from non-Siege units for items.
@@ -63,11 +63,6 @@
       </rPr>
       <t>, with the wood dependeing on their leftover Resources in Vanilla.</t>
     </r>
-  </si>
-  <si>
-    <t>La Hire, Constable Richemont, 16 Arbalesters, 8 Champions, 8 Hussars, 6 Paladins, 2 Trebuchets (French Army)
-Jean Bureau, 8 Hand Cannoneers, 6 Bombard Cannons (French Artillery)
-400 Food, 400 Wood, 50 Gold, 150 Stone</t>
   </si>
   <si>
     <t>6 Villagers</t>
@@ -77,79 +72,6 @@
 Cart carrying the French Flag
 100 Food
 100 Wood</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Reach the French Army
-Reach the French Artillery
-Defeat </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Burgundy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Defeat </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Shrewsbury</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Destroy </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1/2/3 English Castle/s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Defeat </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>English</t>
-    </r>
   </si>
   <si>
     <r>
@@ -701,157 +623,6 @@
     <t>The Cleansing of the Loire</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Defeating </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Orléans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> would be pointless, seeing as they only own the Cathedral that must survive.
-The Resources are given when the Trade Carts reach </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Orlèans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>12 Crossbowmen, 8 Knights (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF06CFEA"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Blois</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)
-2 Transport Ships, 1 Dock
-Misc. Buildings (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Orlèans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)
-1000 Food, 1500 Wood, 1500 Gold, 500 Stone</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6 Trade Carts (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF06CFEA"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Blois</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)
-3 Villagers (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Orlèans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)
-1 Town Center (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Orlèans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>Joan of Arc
 Duke D'Alençon
 4 Knights
@@ -986,81 +757,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Bring Joan to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF06CFEA"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Blois</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Bring 6 Trade Carts to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Orlèans</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Bring Joan to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Orléans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Destroy </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1 English </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Castle</t>
-    </r>
-  </si>
-  <si>
     <t>The Maid of Orleans</t>
   </si>
   <si>
@@ -1314,13 +1010,2336 @@
   </si>
   <si>
     <t>Scenario</t>
+  </si>
+  <si>
+    <t>Army Player 2</t>
+  </si>
+  <si>
+    <t>Army Player 3</t>
+  </si>
+  <si>
+    <t>Army Player 4</t>
+  </si>
+  <si>
+    <t>Army Player 5</t>
+  </si>
+  <si>
+    <t>Army Player 6</t>
+  </si>
+  <si>
+    <t>Army Player 7</t>
+  </si>
+  <si>
+    <t>Army Player 8</t>
+  </si>
+  <si>
+    <t>Logic</t>
+  </si>
+  <si>
+    <t>10 Men-at-Arms
+4 Archers
+1 Scout
+1 Light Cavalry</t>
+  </si>
+  <si>
+    <t>10 Spearmen
+2 Knights
+1 Trebuchet</t>
+  </si>
+  <si>
+    <t>1 Militia
+20 Men-at-Arms
+4 Spearmen
+6 Pikemen
+23 Crossbowmen
+4 Knights
+2 Scorpions
+1 Battering Ram
+1 Monk</t>
+  </si>
+  <si>
+    <t>22 Elite Longbowmen
+10 Cavalier
+3 Onagers</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+15 Men-at-Arms
+13 Pikemen
+6 Archers
+11 Crossbowmen
+4 Coustillieres
+7 Light Cavalry
+3 Mangonels
+1 War Galley
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+6 Men-at-Arms
+5 Pikemen
+6 Archers
+11 Crossbowmen
+4 Coustillieres
+7 Light Cavalry
+2 Mangonels
+1 War Galley
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Identical to Moderate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Burgundian Village</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can be reached from the Beginning.
+The</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Burgundian Ambush</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can be defeated with any 3 Groups of Soldiers.
+The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Burgundian Castle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can be destroyed with the Battering Ram and any 1 addittional Group of Soldiers.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chinon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Army of France</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Highwaymen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can be defeated and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chinon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> reached with the Transport Ships and any addittional Group of Soldiers.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Burgundy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can be defeated with the Battering Ram, any 2 addittional Groups of Soldiers and the Tarnsport Ships.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>1 Monk</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Starting Units:
+1 Scout
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+12 Knights
+4 Battering Rams
+1 Monk
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+7 Knights
+3 Battering Rams
+1 Monk
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+15 Knights
+4 Battering Rams
+1 Monk</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Starting Units:
+4 Long Swordsmen
+6 Longbowmen
+1 Scout
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+14 Long Swordsmen
+12 Longbowmen
+2 Mangonels
+1 Monk
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+9 Long Swordsmen
+6 Longbowmen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+18 Long Swordsmen
+20 Longbowmen
+3 Mangonels
+1 Monk</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Starting Units:
+6 Men-at-Arms
+4 Crossbowmen
+2 Coustillieres
+2 Knights
+1 Scout
+6 Light Cavalry
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+12 Long Swordsmen
+17 Pikemen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+8 Long Swordsmen
+12 Pikemen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+17 Long Swordsmen
+21 Pikemen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Defeating </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF03CBF3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Blois</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chinon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and reaching </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF03CBF3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Blois</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Orlèans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is possible from the Beginning.
+The Player needs to optain the Trade Carts to bring them to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Orlèans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+The Player needs to be able to build a base to defeat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Burgundy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Northern English</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Southern English</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and destroy their Castles.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6 Trade Carts (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF06CFEA"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Blois</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)
+3 Villagers (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Orlèans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)
+1 Town Center (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Orlèans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>12 Crossbowmen, 8 Knights (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF03CBF3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Blois</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)
+2 Transport Ships, 1 Dock
+Misc. Buildings (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Orlèans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)
+1000 Food, 1500 Wood, 1500 Gold, 500 Stone</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Defeating </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Orléans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> would be pointless, seeing as they only own the Cathedral that must survive.
+The Resources are given when the Trade Carts reach </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Orlèans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bring Joan to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF06CFEA"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Blois</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Bring 6 Trade Carts to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Orlèans</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bring Joan to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Orléans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Destroy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1 English </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Castle</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Starting Units:
+8 Men-at-Arms
+1 Scorpion
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+15 Long Swordsmen
+12 Pikemen
+4 Mangonels
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+Later:
+10 Long Swordsmen
+8 Pikemen
+1 Mangonel
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+20 Long Swordsmen
+15 Pikemen
+4 Mangonels</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Starting Units:
+2 War Galleys
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+12 Long Swordsmen
+14 Longbowmen
+8 Knights
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+8 Long Swordsmen
+10 Longbowmen
+5 Knights
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+15 Long Swordsmen
+18 Longbowmen
+12 Knights</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Starting Units:
+1 Scout
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+12 Cavalier
+2 Scouts
+4 Capped Rams
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+8 Cavalier
+2 Scouts
+4 Capped Rams
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+17 Cavalier
+2 Scouts
+4 Capped Rams</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Player needs to optain the Transport Ships or have unlocked Docks and Transport Ships and optained Villagers and Resources for ANY Objectives.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Burgundy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fastolf's Army</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can be defeated with only the starting Units.
+The Player needs to be able to build a base to defeat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>English</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, destroy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Castles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and kill </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sir John Fastolf</t>
+    </r>
+  </si>
+  <si>
+    <t>9 Men-at-Arms
+6 Crossbowmen
+1 Scout</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Starting Units:
+6 Spearmen
+2 Scouts
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+30 Pikemen
+18 Knights
+1 Scout
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+18 Pikemen
+7 Knights
+1 Scout
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+Identical to Moderate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Starting Units:
+6 Crossbowmen
+4 Knights
+4 Scorpions
+1 Battering Ram
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+20 Paladins
+1 Scout
+8 Heavy Scorpions
+5 Capped Rams
+5 Galleons
+4 Elite Cannon Galleons
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+7 Paladins
+1 Scout
+5 Heavy Scorpions
+3 Capped Rams
+5 Galleons
+2 Cannon Galleons
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+Identical to Moderate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Defeating </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>English Guards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and reaching the French Town can be done with the starting Units.
+Defeating other Enemies and destroying Towncenters requires the Player to be able to build a Base.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Starting Units:
+18 Longbowmen
+5 Knights
+3 Trebuchets
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+20 Elite Longbowmen
+5 Chevalier
+1 Scout
+3 Onagers
+6 Trebuchets
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+10 Elite Longbowmen
+3 Chevalier
+1 Scout
+3 Onagers
+2 Trebuchets
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+20 Elite Longbowmen
+7 Chevalier
+1 Scout
+5 Onagers
+6 Trebuchets</t>
+    </r>
+  </si>
+  <si>
+    <t>12 Crossbowmen
+1 Onager</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+18 Champions
+4 Paladins
+2 Elite Coustillieres
+1 Hussar
+3 Onagers
+1 Siege Ram
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+18 Champions
+4 Paladins
+2 Elite Coustillieres
+1 Hussar
+1 Onager
+1 Siege Ram
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hard:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>42 Champions
+7 Paladins
+7 Elite Coustillieres
+1 Hussar
+6 Onagers
+10 Siege Rams</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+22 Champions
+10 Halberdiers
+40 Elite Longbowmen
+4 Cavalier
+7 Onagers
+3 Trebuchets
+3 Galleons
+1 Cannon Galleon
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+22 Champions
+10 Halberdiers
+40 Elite Longbowmen
+4 Cavalier
+3 Trebuchets
+3 Galleons
+1 Cannon Galleon
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hard: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+22 Champions
+10 Halberdiers
+40 Elite Longbowmen
+4 Cavalier
+9 Onagers
+3 Trebuchets
+3 Galleons
+1 Cannon Galleon
+6 Monks</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Villagers are required to bring them to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF03CBF3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Compiègne</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Units:
+6 Long Swordsmen
+23 Crossbowmen
+6 Coustillieres
+1 Light Cavalry
+1 Onager
+1 Trebuchet
+5 Monks
+Later:
+50 Champions
+35 Halberdiers
+3 Monks
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Units:
+6 Long Swordsmen
+23 Crossbowmen
+3 Coustillieres
+1 Light Cavalry
+1 Onager
+1 Trebuchet
+5 Monks
+Later:
+30 Champions
+25 Halberdiers
+1 Monk
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Units:
+6 Long Swordsmen
+23 Crossbowmen
+8 Coustillieres
+1 Light Cavalry
+2 Onagers
+3 Bombard Cannons
+1 Trebuchet
+5 Monks
+Later:
+Identical to Moderate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Starting Units:
+44 Longbowmen
+13 Knights
+1 Light Cavalry
+3 Onagers
+3 Trebuchets
+2 Galleons
+1 Cannon Galleon
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+25 Elite Longbowmen
+18 Cavalier
+4 Onagers
+2 Trebuchets
+1 Cannon Galleon
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+12 Elite Longbowmen
+6 Cavalier
+2 Trebuchets
+1 Cannon Galleon
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+25 Elite Longbowmen
+18 Cavalier
+6 Heavy Scorpions
+4 Onagers
+6 Trebuchets
+1 Cannon Galleon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Starting Units:
+12 Cavalier
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+40 Cavalier
+30 Light Cavalry
+6 Capped Rams
+4 Trebuchets
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+20 Cavalier
+12 Light Cavalry
+6 Capped Rams
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+Identical to Moderate</t>
+    </r>
+  </si>
+  <si>
+    <t>La Hire, Constable Richemont, 16 Arbalesters, 8 Champions, 8 Hussars, 6 Paladins, 2 Trebuchets (1 on Hard) (French Army)
+Jean Bureau, 8 Hand Cannoneers, 6 Bombard Cannons (3 on Hard) (French Artillery)
+400 Food, 400 Wood, 50 Gold, 150 Stone</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reach the French Army
+Reach the French Artillery
+Defeat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Burgundy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Defeat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Shrewsbury</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Destroy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1/2/3/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Castle/s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Defeat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>English</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reaching the French Army and French Artillery is possible from the Beginning.
+Destroying </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Burgundies Town Cente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">r and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Castle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is possible with any Group of Units.
+Defeating </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Burgundy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is possible with all starting Units or when able to build a base.
+Defeating </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shrewsbury</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>English</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, destroying their </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Castles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and reaching the Hill with the Flag is possible when the Player can build a base.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1405,25 +3424,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="0" tint="-0.34998626667073579"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color rgb="FF3A3A3A"/>
       <name val="Calibri"/>
@@ -1439,6 +3439,66 @@
     <font>
       <sz val="24"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF03CBF3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF03CBF3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1560,7 +3620,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1572,13 +3632,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1587,6 +3647,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF03CBF3"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1895,10 +3960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97DF1602-A413-455F-B8F1-4D394446904E}">
-  <dimension ref="B2:I9"/>
+  <dimension ref="B2:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B12"/>
+    <sheetView tabSelected="1" topLeftCell="H5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1911,186 +3976,323 @@
     <col min="7" max="7" width="28.28515625" customWidth="1"/>
     <col min="8" max="8" width="33.42578125" customWidth="1"/>
     <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="28.42578125" customWidth="1"/>
+    <col min="11" max="11" width="28" customWidth="1"/>
+    <col min="12" max="12" width="27.5703125" customWidth="1"/>
+    <col min="13" max="13" width="28.28515625" customWidth="1"/>
+    <col min="14" max="14" width="27.85546875" customWidth="1"/>
+    <col min="15" max="15" width="27.7109375" customWidth="1"/>
+    <col min="16" max="16" width="27.7109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="39.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:17" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>45</v>
+      <c r="Q3" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="188.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" ht="375.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>29</v>
+        <v>67</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="207" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" ht="338.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="207" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I7" s="1"/>
+      <c r="J7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="8" spans="2:9" ht="263.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>